--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tnfsf11</t>
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.0794135</v>
+      </c>
+      <c r="H2">
+        <v>0.158827</v>
+      </c>
+      <c r="I2">
+        <v>0.04568877788049506</v>
+      </c>
+      <c r="J2">
+        <v>0.03242712741837583</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.409861</v>
-      </c>
-      <c r="H2">
-        <v>4.229583</v>
-      </c>
-      <c r="I2">
-        <v>0.8996799439973785</v>
-      </c>
-      <c r="J2">
-        <v>0.9308061179577465</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N2">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O2">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P2">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q2">
-        <v>0.145111353286</v>
+        <v>0.1723231125556667</v>
       </c>
       <c r="R2">
-        <v>0.870668119716</v>
+        <v>1.033938675334</v>
       </c>
       <c r="S2">
-        <v>0.03438221982019012</v>
+        <v>0.03408357347737728</v>
       </c>
       <c r="T2">
-        <v>0.02535682306453019</v>
+        <v>0.02642808302620863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,72 +584,72 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.409861</v>
+        <v>0.0794135</v>
       </c>
       <c r="H3">
-        <v>4.229583</v>
+        <v>0.158827</v>
       </c>
       <c r="I3">
-        <v>0.8996799439973785</v>
+        <v>0.04568877788049506</v>
       </c>
       <c r="J3">
-        <v>0.9308061179577465</v>
+        <v>0.03242712741837583</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N3">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O3">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P3">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q3">
-        <v>3.059324117320667</v>
+        <v>0.05867474388849999</v>
       </c>
       <c r="R3">
-        <v>27.533917055886</v>
+        <v>0.234698975554</v>
       </c>
       <c r="S3">
-        <v>0.7248664692390847</v>
+        <v>0.01160520440311778</v>
       </c>
       <c r="T3">
-        <v>0.801881505994828</v>
+        <v>0.005999044392167204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,40 +667,40 @@
         <v>4.229583</v>
       </c>
       <c r="I4">
-        <v>0.8996799439973785</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J4">
-        <v>0.9308061179577465</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N4">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O4">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P4">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q4">
-        <v>0.5926949904425</v>
+        <v>3.059324117320667</v>
       </c>
       <c r="R4">
-        <v>3.556169942655</v>
+        <v>27.533917055886</v>
       </c>
       <c r="S4">
-        <v>0.1404312549381038</v>
+        <v>0.6050999009789092</v>
       </c>
       <c r="T4">
-        <v>0.1035677888983882</v>
+        <v>0.7037831772320862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +708,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1572085</v>
+        <v>1.409861</v>
       </c>
       <c r="H5">
-        <v>0.314417</v>
+        <v>4.229583</v>
       </c>
       <c r="I5">
-        <v>0.1003200560026214</v>
+        <v>0.8111319369045898</v>
       </c>
       <c r="J5">
-        <v>0.06919388204225353</v>
+        <v>0.8635384844365019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N5">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O5">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P5">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q5">
-        <v>0.016180842071</v>
+        <v>1.041677209711</v>
       </c>
       <c r="R5">
-        <v>0.06472336828400001</v>
+        <v>6.250063258265999</v>
       </c>
       <c r="S5">
-        <v>0.003833836955985276</v>
+        <v>0.2060320359256805</v>
       </c>
       <c r="T5">
-        <v>0.001884965075157619</v>
+        <v>0.1597553072044157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1572085</v>
+        <v>0.23704</v>
       </c>
       <c r="H6">
-        <v>0.314417</v>
+        <v>0.47408</v>
       </c>
       <c r="I6">
-        <v>0.1003200560026214</v>
+        <v>0.1363756528649732</v>
       </c>
       <c r="J6">
-        <v>0.06919388204225353</v>
+        <v>0.09679117887074373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,54 +809,54 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P6">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q6">
-        <v>0.3411341653523334</v>
+        <v>0.5143643158933333</v>
       </c>
       <c r="R6">
-        <v>2.046804992114</v>
+        <v>3.08618589536</v>
       </c>
       <c r="S6">
-        <v>0.08082723781236067</v>
+        <v>0.1017354764250097</v>
       </c>
       <c r="T6">
-        <v>0.05960993730832942</v>
+        <v>0.07888473371067253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1572085</v>
+        <v>0.23704</v>
       </c>
       <c r="H7">
-        <v>0.314417</v>
+        <v>0.47408</v>
       </c>
       <c r="I7">
-        <v>0.1003200560026214</v>
+        <v>0.1363756528649732</v>
       </c>
       <c r="J7">
-        <v>0.06919388204225353</v>
+        <v>0.09679117887074373</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N7">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O7">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P7">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q7">
-        <v>0.06608927433624999</v>
+        <v>0.17513724104</v>
       </c>
       <c r="R7">
-        <v>0.264357097345</v>
+        <v>0.7005489641599999</v>
       </c>
       <c r="S7">
-        <v>0.0156589812342755</v>
+        <v>0.03464017643996346</v>
       </c>
       <c r="T7">
-        <v>0.007698979658766487</v>
+        <v>0.0179064451600712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.035477</v>
+      </c>
+      <c r="I8">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J8">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N8">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.7459944226682381</v>
+      </c>
+      <c r="P8">
+        <v>0.8149992037602547</v>
+      </c>
+      <c r="Q8">
+        <v>0.02566107384822222</v>
+      </c>
+      <c r="R8">
+        <v>0.230949664634</v>
+      </c>
+      <c r="S8">
+        <v>0.005075471786941825</v>
+      </c>
+      <c r="T8">
+        <v>0.005903209791287398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01182566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.035477</v>
+      </c>
+      <c r="I9">
+        <v>0.006803632349941858</v>
+      </c>
+      <c r="J9">
+        <v>0.007243209274378534</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7388509999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.477702</v>
+      </c>
+      <c r="O9">
+        <v>0.2540055773317618</v>
+      </c>
+      <c r="P9">
+        <v>0.1850007962397452</v>
+      </c>
+      <c r="Q9">
+        <v>0.008737405642333333</v>
+      </c>
+      <c r="R9">
+        <v>0.052424433854</v>
+      </c>
+      <c r="S9">
+        <v>0.001728160563000033</v>
+      </c>
+      <c r="T9">
+        <v>0.001339999483091136</v>
       </c>
     </row>
   </sheetData>
